--- a/src/barkley/cross_pred_results.xlsx
+++ b/src/barkley/cross_pred_results.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
   <si>
     <t>N</t>
   </si>
@@ -78,12 +78,21 @@
   <si>
     <t>!!!!</t>
   </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>at N</t>
+  </si>
+  <si>
+    <t>patch size</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,8 +147,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,8 +185,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -234,15 +267,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -266,12 +329,21 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
     <cellStyle name="Berechnung" xfId="3" builtinId="22"/>
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
     <cellStyle name="Erklärender Text" xfId="4" builtinId="53"/>
+    <cellStyle name="Gut" xfId="5" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="6" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -285,6 +357,942 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tuning!$B$9:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tuning!$I$9:$I$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>7.1359460692025701E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.2282128416532605E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.3874565474518099E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3575337309832504E-4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.7420621709952504E-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3055672000828301E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.6731448658294104E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.08030854306464E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8BC5-43F1-A6AF-A303C2F31FE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="412710248"/>
+        <c:axId val="412713528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="412710248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412713528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="412713528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="412710248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7F3418C-E919-4A40-BD04-83A31F0CF02D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -587,7 +1595,7 @@
   <dimension ref="B1:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="N3" sqref="N2:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1412,13 +2420,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.140625" customWidth="1"/>
+    <col min="8" max="8" width="1.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
@@ -1427,236 +2441,490 @@
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>161</v>
+      </c>
+      <c r="D3" s="2">
+        <v>161</v>
+      </c>
+      <c r="F3" s="2">
+        <v>164</v>
+      </c>
+      <c r="G3" s="2">
+        <v>162</v>
+      </c>
+      <c r="I3" s="2">
+        <v>165</v>
+      </c>
+      <c r="J3" s="2">
+        <v>164</v>
+      </c>
+    </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="3">
+        <f>(C4*C5)^2</f>
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <f t="shared" ref="D6:J6" si="0">(D4*D5)^2</f>
+        <v>16</v>
+      </c>
+      <c r="F6" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2">
-        <v>161</v>
-      </c>
-      <c r="C4" s="2">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>4</v>
-      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>7</v>
-      </c>
+      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.0036614475297599E-4</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="F9" s="3">
+        <v>1.84916044399639E-4</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8.85820220754192E-4</v>
+      </c>
+      <c r="I9" s="3">
+        <v>7.1359460692025701E-4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>6.5644790106198798E-3</v>
+      </c>
+      <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="B10" s="2">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.7259991022395901E-4</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="F10" s="3">
+        <v>1.90428883062033E-4</v>
+      </c>
+      <c r="G10" s="3">
+        <v>8.7758800737793301E-4</v>
+      </c>
+      <c r="I10" s="3">
+        <v>7.2282128416532605E-4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>6.7456662713390797E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.5535142551917401E-4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.1688068525894697E-4</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1.9284956098657499E-4</v>
+      </c>
+      <c r="G11" s="3">
+        <v>8.3430274507303602E-4</v>
+      </c>
+      <c r="I11" s="3">
+        <v>7.3874565474518099E-4</v>
+      </c>
+      <c r="J11" s="3">
+        <v>6.9632965074918497E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.5718899552127899E-4</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="F12" s="3">
+        <v>1.85722165500422E-4</v>
+      </c>
+      <c r="G12" s="3">
+        <v>9.0225555567159102E-4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7.3575337309832504E-4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>7.2895078866260796E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.3452106815218799E-4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5.0207518622306197E-4</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1.88446500552483E-4</v>
+      </c>
+      <c r="G13" s="3">
+        <v>9.0476578976827799E-4</v>
+      </c>
+      <c r="I13" s="3">
+        <v>7.7420621709952504E-4</v>
+      </c>
+      <c r="J13" s="3">
+        <v>7.5588931123844799E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.21886151473877E-4</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="F14" s="3">
+        <v>1.9642756071637E-4</v>
+      </c>
+      <c r="G14" s="3">
+        <v>9.4639163527661103E-4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>8.3055672000828301E-4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>8.5831162875826903E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.11094535713608E-4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4.22752382804717E-4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>1.96316315524402E-4</v>
+      </c>
+      <c r="G15" s="3">
+        <v>9.3644789188070197E-4</v>
+      </c>
+      <c r="I15" s="3">
+        <v>8.6731448658294104E-4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>9.6453580136129802E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>150</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.0825849110478E-4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3.87558920528481E-4</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2.07794398905504E-4</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1.1109410112274799E-3</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1.08030854306464E-3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1.1939220768893199E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>200</v>
+      </c>
+      <c r="C17" s="9">
+        <v>8.9120388536307905E-5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.5962140735352501E-4</v>
+      </c>
+      <c r="F17" s="3">
+        <v>2.0044748236900799E-4</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1.11655251809299E-3</v>
+      </c>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3">
+        <v>1.54345627637035E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>250</v>
+      </c>
+      <c r="C18" s="9">
+        <v>9.2281648691583E-5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.5385553357380301E-4</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1.9306506307164201E-4</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.2069687691740299E-3</v>
+      </c>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3">
+        <v>1.8739155966606399E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>300</v>
+      </c>
+      <c r="C19" s="9">
+        <v>8.5542056306559203E-5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3.4613499364561002E-4</v>
+      </c>
+      <c r="F19" s="3">
+        <v>2.0044748236900799E-4</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1.2325424397742501E-3</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3">
+        <v>2.2561235104750801E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>350</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>3.5049175970383503E-4</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>400</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>3.3093149088347001E-4</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>450</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>3.2081719733881401E-4</v>
+      </c>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>500</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>3.13970744165093E-4</v>
+      </c>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
+        <v>550</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17">
+        <v>3.2666527358556801E-4</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="18">
+        <f>MIN(C9:C24)</f>
+        <v>8.5542056306559203E-5</v>
+      </c>
+      <c r="D25" s="18">
+        <f t="shared" ref="D25:J25" si="1">MIN(D9:D24)</f>
+        <v>3.13970744165093E-4</v>
+      </c>
+      <c r="F25" s="18">
+        <f t="shared" si="1"/>
+        <v>1.84916044399639E-4</v>
+      </c>
+      <c r="G25" s="18">
+        <f>MIN(G9:G24)</f>
+        <v>8.3430274507303602E-4</v>
+      </c>
+      <c r="I25" s="18">
+        <f t="shared" si="1"/>
+        <v>7.1359460692025701E-4</v>
+      </c>
+      <c r="J25" s="18">
+        <f t="shared" si="1"/>
+        <v>6.5644790106198798E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="20">
+        <f>INDEX($B9:$B24, MATCH(MIN(C9:C24), C9:C24, 0))</f>
+        <v>300</v>
+      </c>
+      <c r="D26" s="20">
+        <f>INDEX($B9:$B24, MATCH(MIN(D9:D24), D9:D24, 0))</f>
+        <v>500</v>
+      </c>
+      <c r="F26" s="20">
+        <f>INDEX($B9:$B24, MATCH(MIN(F9:F24), F9:F24, 0))</f>
         <v>10</v>
       </c>
-      <c r="B10" s="3">
-        <v>2.0036614475297599E-4</v>
-      </c>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>20</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1.7259991022395901E-4</v>
-      </c>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="G26" s="20">
+        <f>INDEX($B9:$B24, MATCH(MIN(G9:G24), G9:G24, 0))</f>
         <v>30</v>
       </c>
-      <c r="B12" s="3">
-        <v>1.5535142551917401E-4</v>
-      </c>
-      <c r="C12" s="3">
-        <v>5.1688068525894697E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>40</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1.5718899552127899E-4</v>
-      </c>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="8">
-        <v>50</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1.3452106815218799E-4</v>
-      </c>
-      <c r="C14" s="3">
-        <v>5.0207518622306197E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>80</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1.21886151473877E-4</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>100</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1.11094535713608E-4</v>
-      </c>
-      <c r="C16" s="3">
-        <v>4.22752382804717E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>150</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1.0825849110478E-4</v>
-      </c>
-      <c r="C17" s="3">
-        <v>3.87558920528481E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>200</v>
-      </c>
-      <c r="B18" s="9">
-        <v>8.9120388536307905E-5</v>
-      </c>
-      <c r="C18" s="3">
-        <v>3.5962140735352501E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>250</v>
-      </c>
-      <c r="B19" s="9">
-        <v>9.2281648691583E-5</v>
-      </c>
-      <c r="C19" s="3">
-        <v>3.5385553357380301E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>300</v>
-      </c>
-      <c r="B20" s="9">
-        <v>8.5542056306559203E-5</v>
-      </c>
-      <c r="C20" s="3">
-        <v>3.4613499364561002E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>350</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3">
-        <v>3.5049175970383503E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>400</v>
-      </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3">
-        <v>3.3093149088347001E-4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>450</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3">
-        <v>3.2081719733881401E-4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>500</v>
-      </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3">
-        <v>3.13970744165093E-4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="12">
-        <v>550</v>
-      </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3">
-        <v>3.2666527358556801E-4</v>
+      <c r="I26" s="20">
+        <f>INDEX($B9:$B24, MATCH(MIN(I9:I24), I9:I24, 0))</f>
+        <v>10</v>
+      </c>
+      <c r="J26" s="20">
+        <f>INDEX($B9:$B24, MATCH(MIN(J9:J24), J9:J24, 0))</f>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1664,6 +2932,8 @@
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/src/barkley/cross_pred_results.xlsx
+++ b/src/barkley/cross_pred_results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Unoptimized" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
   <si>
     <t>N</t>
   </si>
@@ -76,9 +76,6 @@
     <t>Rho</t>
   </si>
   <si>
-    <t>!!!!</t>
-  </si>
-  <si>
     <t>Minimum</t>
   </si>
   <si>
@@ -86,6 +83,12 @@
   </si>
   <si>
     <t>patch size</t>
+  </si>
+  <si>
+    <t>mit N=200</t>
+  </si>
+  <si>
+    <t>regression</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,12 +184,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
@@ -196,7 +193,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -295,6 +292,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -302,10 +310,10 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
@@ -320,22 +328,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="6" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="5" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="6" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Ausgabe" xfId="2" builtinId="21"/>
@@ -412,6 +421,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>K</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -480,7 +492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Tuning!$I$9:$I$19</c:f>
+              <c:f>Tuning!$J$9:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -515,6 +527,142 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8BC5-43F1-A6AF-A303C2F31FE5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>E</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Tuning!$B$9:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Tuning!$E$9:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2.0282994296364201E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0792077697723101E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.87455104603909E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.85572332518505E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.84821707086378E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.82011601592898E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9215186481686001E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.75808928269586E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6758856749966499E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.67422157166001E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6246968681396399E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-751C-4CDB-A00C-BE6003F5C8E0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1259,15 +1407,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>733425</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1592,1357 +1740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:Y30"/>
+  <dimension ref="B2:Y30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N3" sqref="N2:N4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.7109375" customWidth="1"/>
-    <col min="7" max="7" width="1.140625" customWidth="1"/>
-    <col min="12" max="12" width="1.140625" customWidth="1"/>
-    <col min="17" max="17" width="1.140625" customWidth="1"/>
-    <col min="21" max="21" width="1.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="R1" s="14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2">
-        <v>165</v>
-      </c>
-      <c r="D2" s="2">
-        <v>155</v>
-      </c>
-      <c r="E2" s="2">
-        <v>165</v>
-      </c>
-      <c r="F2" s="2">
-        <v>155</v>
-      </c>
-      <c r="H2" s="2">
-        <v>156</v>
-      </c>
-      <c r="I2" s="2">
-        <v>160</v>
-      </c>
-      <c r="J2" s="2">
-        <v>164</v>
-      </c>
-      <c r="K2" s="2">
-        <v>164</v>
-      </c>
-      <c r="M2" s="2">
-        <v>165</v>
-      </c>
-      <c r="N2" s="2">
-        <v>165</v>
-      </c>
-      <c r="O2" s="2">
-        <v>159</v>
-      </c>
-      <c r="P2" s="2">
-        <v>168</v>
-      </c>
-      <c r="R2" s="2">
-        <v>162</v>
-      </c>
-      <c r="S2" s="2">
-        <v>164</v>
-      </c>
-      <c r="T2" s="2">
-        <v>162</v>
-      </c>
-      <c r="V2" s="2">
-        <v>161</v>
-      </c>
-      <c r="W2" s="2">
-        <v>161</v>
-      </c>
-      <c r="X2" s="2">
-        <v>163</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>5</v>
-      </c>
-      <c r="H3" s="2">
-        <v>4</v>
-      </c>
-      <c r="I3" s="2">
-        <v>4</v>
-      </c>
-      <c r="J3" s="2">
-        <v>4</v>
-      </c>
-      <c r="K3" s="2">
-        <v>4</v>
-      </c>
-      <c r="M3" s="2">
-        <v>3</v>
-      </c>
-      <c r="N3" s="2">
-        <v>3</v>
-      </c>
-      <c r="O3" s="2">
-        <v>3</v>
-      </c>
-      <c r="P3" s="2">
-        <v>3</v>
-      </c>
-      <c r="R3" s="2">
-        <v>2</v>
-      </c>
-      <c r="S3" s="2">
-        <v>2</v>
-      </c>
-      <c r="T3" s="2">
-        <v>2</v>
-      </c>
-      <c r="V3" s="2">
-        <v>1</v>
-      </c>
-      <c r="W3" s="2">
-        <v>1</v>
-      </c>
-      <c r="X3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2">
-        <v>3</v>
-      </c>
-      <c r="F4" s="2">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1</v>
-      </c>
-      <c r="I4" s="2">
-        <v>2</v>
-      </c>
-      <c r="J4" s="2">
-        <v>3</v>
-      </c>
-      <c r="K4" s="2">
-        <v>4</v>
-      </c>
-      <c r="M4" s="2">
-        <v>1</v>
-      </c>
-      <c r="N4" s="2">
-        <v>2</v>
-      </c>
-      <c r="O4" s="2">
-        <v>3</v>
-      </c>
-      <c r="P4" s="2">
-        <v>4</v>
-      </c>
-      <c r="R4" s="2">
-        <v>1</v>
-      </c>
-      <c r="S4" s="2">
-        <v>2</v>
-      </c>
-      <c r="T4" s="2">
-        <v>3</v>
-      </c>
-      <c r="V4" s="2">
-        <v>3</v>
-      </c>
-      <c r="W4" s="2">
-        <v>4</v>
-      </c>
-      <c r="X4" s="2">
-        <v>5</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <f>C4+1</f>
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <f>D4+1</f>
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <f>E4+1</f>
-        <v>4</v>
-      </c>
-      <c r="F6" s="1">
-        <f>F4+1</f>
-        <v>5</v>
-      </c>
-      <c r="H6" s="1">
-        <f>H4+1</f>
-        <v>2</v>
-      </c>
-      <c r="I6" s="1">
-        <f>I4+1</f>
-        <v>3</v>
-      </c>
-      <c r="J6" s="1">
-        <f>J4+1</f>
-        <v>4</v>
-      </c>
-      <c r="K6" s="1">
-        <f>K4+1</f>
-        <v>5</v>
-      </c>
-      <c r="M6" s="1">
-        <f>M4+1</f>
-        <v>2</v>
-      </c>
-      <c r="N6" s="1">
-        <f>N4+1</f>
-        <v>3</v>
-      </c>
-      <c r="O6" s="1">
-        <f>O4+1</f>
-        <v>4</v>
-      </c>
-      <c r="P6" s="1">
-        <f>P4+1</f>
-        <v>5</v>
-      </c>
-      <c r="R6" s="1">
-        <f>R4+1</f>
-        <v>2</v>
-      </c>
-      <c r="S6" s="1">
-        <f>S4+1</f>
-        <v>3</v>
-      </c>
-      <c r="T6" s="1">
-        <f>T4+1</f>
-        <v>4</v>
-      </c>
-      <c r="V6" s="1">
-        <f>V4+1</f>
-        <v>4</v>
-      </c>
-      <c r="W6" s="1">
-        <f>W4+1</f>
-        <v>5</v>
-      </c>
-      <c r="X6" s="1">
-        <f>X4+1</f>
-        <v>6</v>
-      </c>
-      <c r="Y6" s="1">
-        <f>Y4+1</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <f>C2/C3</f>
-        <v>33</v>
-      </c>
-      <c r="D7" s="1">
-        <f>D2/D3</f>
-        <v>31</v>
-      </c>
-      <c r="E7" s="1">
-        <f>E2/E3</f>
-        <v>33</v>
-      </c>
-      <c r="F7" s="1">
-        <f>F2/F3</f>
-        <v>31</v>
-      </c>
-      <c r="H7" s="1">
-        <f>H2/H3</f>
-        <v>39</v>
-      </c>
-      <c r="I7" s="1">
-        <f>I2/I3</f>
-        <v>40</v>
-      </c>
-      <c r="J7" s="1">
-        <f>J2/J3</f>
-        <v>41</v>
-      </c>
-      <c r="K7" s="1">
-        <f>K2/K3</f>
-        <v>41</v>
-      </c>
-      <c r="M7" s="1">
-        <f>M2/M3</f>
-        <v>55</v>
-      </c>
-      <c r="N7" s="1">
-        <f>N2/N3</f>
-        <v>55</v>
-      </c>
-      <c r="O7" s="1">
-        <f>O2/O3</f>
-        <v>53</v>
-      </c>
-      <c r="P7" s="1">
-        <f>P2/P3</f>
-        <v>56</v>
-      </c>
-      <c r="R7" s="1">
-        <f>R2/R3</f>
-        <v>81</v>
-      </c>
-      <c r="S7" s="1">
-        <f>S2/S3</f>
-        <v>82</v>
-      </c>
-      <c r="T7" s="1">
-        <f>T2/T3</f>
-        <v>81</v>
-      </c>
-      <c r="V7" s="1">
-        <f>V2/V3</f>
-        <v>161</v>
-      </c>
-      <c r="W7" s="1">
-        <f>W2/W3</f>
-        <v>161</v>
-      </c>
-      <c r="X7" s="1">
-        <f>X2/X3</f>
-        <v>163</v>
-      </c>
-      <c r="Y7" s="1">
-        <f>Y2/Y3</f>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1">
-        <f>(C7-1)/C6</f>
-        <v>16</v>
-      </c>
-      <c r="D8" s="1">
-        <f>(D7-1)/D6</f>
-        <v>10</v>
-      </c>
-      <c r="E8" s="1">
-        <f>(E7-1)/E6</f>
-        <v>8</v>
-      </c>
-      <c r="F8" s="1">
-        <f>(F7-1)/F6</f>
-        <v>6</v>
-      </c>
-      <c r="H8" s="1">
-        <f>(H7-1)/H6</f>
-        <v>19</v>
-      </c>
-      <c r="I8" s="1">
-        <f>(I7-1)/I6</f>
-        <v>13</v>
-      </c>
-      <c r="J8" s="1">
-        <f>(J7-1)/J6</f>
-        <v>10</v>
-      </c>
-      <c r="K8" s="1">
-        <f>(K7-1)/K6</f>
-        <v>8</v>
-      </c>
-      <c r="M8" s="1">
-        <f>(M7-1)/M6</f>
-        <v>27</v>
-      </c>
-      <c r="N8" s="1">
-        <f>(N7-1)/N6</f>
-        <v>18</v>
-      </c>
-      <c r="O8" s="1">
-        <f>(O7-1)/O6</f>
-        <v>13</v>
-      </c>
-      <c r="P8" s="1">
-        <f>(P7-1)/P6</f>
-        <v>11</v>
-      </c>
-      <c r="R8" s="1">
-        <f>(R7-1)/R6</f>
-        <v>40</v>
-      </c>
-      <c r="S8" s="1">
-        <f>(S7-1)/S6</f>
-        <v>27</v>
-      </c>
-      <c r="T8" s="1">
-        <f>(T7-1)/T6</f>
-        <v>20</v>
-      </c>
-      <c r="V8" s="1">
-        <f>(V7-1)/V6</f>
-        <v>40</v>
-      </c>
-      <c r="W8" s="1">
-        <f>(W7-1)/W6</f>
-        <v>32</v>
-      </c>
-      <c r="X8" s="1">
-        <f>(X7-1)/X6</f>
-        <v>27</v>
-      </c>
-      <c r="Y8" s="1">
-        <f>(Y7-1)/Y6</f>
-        <v>23.142857142857142</v>
-      </c>
-    </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="1">
-        <f>C8^2*(C3*(C6-1))^2</f>
-        <v>6400</v>
-      </c>
-      <c r="D10" s="1">
-        <f>D8^2*(D3*(D6-1))^2</f>
-        <v>10000</v>
-      </c>
-      <c r="E10" s="1">
-        <f>E8^2*(E3*(E6-1))^2</f>
-        <v>14400</v>
-      </c>
-      <c r="F10" s="1">
-        <f>F8^2*(F3*(F6-1))^2</f>
-        <v>14400</v>
-      </c>
-      <c r="H10" s="1">
-        <f>H8^2*(H3*(H6-1))^2</f>
-        <v>5776</v>
-      </c>
-      <c r="I10" s="1">
-        <f>I8^2*(I3*(I6-1))^2</f>
-        <v>10816</v>
-      </c>
-      <c r="J10" s="1">
-        <f>J8^2*(J3*(J6-1))^2</f>
-        <v>14400</v>
-      </c>
-      <c r="K10" s="1">
-        <f>K8^2*(K3*(K6-1))^2</f>
-        <v>16384</v>
-      </c>
-      <c r="M10" s="1">
-        <f>M8^2*(M3*(M6-1))^2</f>
-        <v>6561</v>
-      </c>
-      <c r="N10" s="1">
-        <f>N8^2*(N3*(N6-1))^2</f>
-        <v>11664</v>
-      </c>
-      <c r="O10" s="1">
-        <f>O8^2*(O3*(O6-1))^2</f>
-        <v>13689</v>
-      </c>
-      <c r="P10" s="1">
-        <f>P8^2*(P3*(P6-1))^2</f>
-        <v>17424</v>
-      </c>
-      <c r="R10" s="1">
-        <f>R8^2*(R3*(R6-1))^2</f>
-        <v>6400</v>
-      </c>
-      <c r="S10" s="1">
-        <f>S8^2*(S3*(S6-1))^2</f>
-        <v>11664</v>
-      </c>
-      <c r="T10" s="1">
-        <f>T8^2*(T3*(T6-1))^2</f>
-        <v>14400</v>
-      </c>
-      <c r="V10" s="1">
-        <f>V8^2*(V3*(V6-1))^2</f>
-        <v>14400</v>
-      </c>
-      <c r="W10" s="1">
-        <f>W8^2*(W3*(W6-1))^2</f>
-        <v>16384</v>
-      </c>
-      <c r="X10" s="1">
-        <f>X8^2*(X3*(X6-1))^2</f>
-        <v>18225</v>
-      </c>
-      <c r="Y10" s="1">
-        <f>Y8^2*(Y3*(Y6-1))^2</f>
-        <v>19281.306122448979</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <f>C2^2</f>
-        <v>27225</v>
-      </c>
-      <c r="D11" s="1">
-        <f>D2^2</f>
-        <v>24025</v>
-      </c>
-      <c r="E11" s="1">
-        <f>E2^2</f>
-        <v>27225</v>
-      </c>
-      <c r="F11" s="1">
-        <f>F2^2</f>
-        <v>24025</v>
-      </c>
-      <c r="H11" s="1">
-        <f>H2^2</f>
-        <v>24336</v>
-      </c>
-      <c r="I11" s="1">
-        <f>I2^2</f>
-        <v>25600</v>
-      </c>
-      <c r="J11" s="1">
-        <f>J2^2</f>
-        <v>26896</v>
-      </c>
-      <c r="K11" s="1">
-        <f>K2^2</f>
-        <v>26896</v>
-      </c>
-      <c r="M11" s="1">
-        <f>M2^2</f>
-        <v>27225</v>
-      </c>
-      <c r="N11" s="1">
-        <f>N2^2</f>
-        <v>27225</v>
-      </c>
-      <c r="O11" s="1">
-        <f>O2^2</f>
-        <v>25281</v>
-      </c>
-      <c r="P11" s="1">
-        <f>P2^2</f>
-        <v>28224</v>
-      </c>
-      <c r="R11" s="1">
-        <f>R2^2</f>
-        <v>26244</v>
-      </c>
-      <c r="S11" s="1">
-        <f>S2^2</f>
-        <v>26896</v>
-      </c>
-      <c r="T11" s="1">
-        <f>T2^2</f>
-        <v>26244</v>
-      </c>
-      <c r="V11" s="1">
-        <f>V2^2</f>
-        <v>25921</v>
-      </c>
-      <c r="W11" s="1">
-        <f>W2^2</f>
-        <v>25921</v>
-      </c>
-      <c r="X11" s="1">
-        <f>X2^2</f>
-        <v>26569</v>
-      </c>
-      <c r="Y11" s="1">
-        <f>Y2^2</f>
-        <v>26569</v>
-      </c>
-    </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="4">
-        <f>C10/C11</f>
-        <v>0.23507805325987144</v>
-      </c>
-      <c r="D12" s="4">
-        <f>D10/D11</f>
-        <v>0.41623309053069718</v>
-      </c>
-      <c r="E12" s="4">
-        <f>E10/E11</f>
-        <v>0.52892561983471076</v>
-      </c>
-      <c r="F12" s="4">
-        <f>F10/F11</f>
-        <v>0.59937565036420393</v>
-      </c>
-      <c r="H12" s="4">
-        <f>H10/H11</f>
-        <v>0.23734385272846811</v>
-      </c>
-      <c r="I12" s="4">
-        <f>I10/I11</f>
-        <v>0.42249999999999999</v>
-      </c>
-      <c r="J12" s="4">
-        <f>J10/J11</f>
-        <v>0.53539559785841762</v>
-      </c>
-      <c r="K12" s="4">
-        <f>K10/K11</f>
-        <v>0.60916121356335518</v>
-      </c>
-      <c r="M12" s="4">
-        <f>M10/M11</f>
-        <v>0.24099173553719008</v>
-      </c>
-      <c r="N12" s="4">
-        <f>N10/N11</f>
-        <v>0.42842975206611572</v>
-      </c>
-      <c r="O12" s="4">
-        <f>O10/O11</f>
-        <v>0.54147383410466354</v>
-      </c>
-      <c r="P12" s="4">
-        <f>P10/P11</f>
-        <v>0.61734693877551017</v>
-      </c>
-      <c r="R12" s="4">
-        <f>R10/R11</f>
-        <v>0.24386526444139614</v>
-      </c>
-      <c r="S12" s="4">
-        <f>S10/S11</f>
-        <v>0.43367043426531826</v>
-      </c>
-      <c r="T12" s="4">
-        <f>T10/T11</f>
-        <v>0.54869684499314131</v>
-      </c>
-      <c r="V12" s="4">
-        <f>V10/V11</f>
-        <v>0.55553412291192472</v>
-      </c>
-      <c r="W12" s="4">
-        <f>W10/W11</f>
-        <v>0.63207437984645654</v>
-      </c>
-      <c r="X12" s="4">
-        <f>X10/X11</f>
-        <v>0.68594979110994014</v>
-      </c>
-      <c r="Y12" s="4">
-        <f>Y10/Y11</f>
-        <v>0.7257068810436591</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
-    </row>
-    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3">
-        <v>3.1610873505004801E-4</v>
-      </c>
-      <c r="D14" s="3">
-        <v>5.0774632556412798E-3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1.81048589532199E-2</v>
-      </c>
-      <c r="F14" s="3">
-        <v>4.5116996379516099E-2</v>
-      </c>
-      <c r="H14" s="3">
-        <v>3.2859012005348503E-4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2.5415593341669498E-3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>8.0034853813541595E-3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>2.07272888103547E-2</v>
-      </c>
-      <c r="M14" s="3">
-        <v>1.5543502418299899E-4</v>
-      </c>
-      <c r="N14" s="3">
-        <v>9.9277578155593195E-4</v>
-      </c>
-      <c r="O14" s="3">
-        <v>3.01855346240136E-3</v>
-      </c>
-      <c r="P14" s="3">
-        <v>8.0090434437869295E-3</v>
-      </c>
-      <c r="R14" s="9">
-        <v>5.90960248564274E-5</v>
-      </c>
-      <c r="S14" s="3">
-        <v>2.9410584653915601E-4</v>
-      </c>
-      <c r="T14" s="3">
-        <v>9.7118445369099205E-4</v>
-      </c>
-      <c r="V14" s="3">
-        <v>2.0603854028094601E-4</v>
-      </c>
-      <c r="W14" s="3">
-        <v>5.1688068525894697E-4</v>
-      </c>
-      <c r="X14" s="3">
-        <v>1.01863862167954E-3</v>
-      </c>
-      <c r="Y14" s="3">
-        <v>1.84589779112873E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="15"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2">
-        <f>INDEX(2:2, MATCH(MIN($14:$14), $14:$14, 0))</f>
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2">
-        <f>INDEX(3:3, MATCH(MIN($14:$14), $14:$14, 0))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23" s="2">
-        <f>INDEX(4:4, MATCH(MIN($14:$14), $14:$14, 0))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="2">
-        <f>INDEX(12:12, MATCH(MIN($14:$14), $14:$14, 0))</f>
-        <v>0.24386526444139614</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="2">
-        <f>INDEX(14:14, MATCH(MIN($14:$14), $14:$14, 0))</f>
-        <v>5.90960248564274E-5</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B27" s="7"/>
-    </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B29" s="7"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B30" s="7"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B20:C20"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3.140625" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.140625" customWidth="1"/>
-    <col min="8" max="8" width="1.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="2">
-        <v>161</v>
-      </c>
-      <c r="D3" s="2">
-        <v>161</v>
-      </c>
-      <c r="F3" s="2">
-        <v>164</v>
-      </c>
-      <c r="G3" s="2">
-        <v>162</v>
-      </c>
-      <c r="I3" s="2">
-        <v>165</v>
-      </c>
-      <c r="J3" s="2">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2</v>
-      </c>
-      <c r="I4" s="2">
-        <v>3</v>
-      </c>
-      <c r="J4" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2">
-        <v>2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="3">
-        <f>(C4*C5)^2</f>
-        <v>9</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" ref="D6:J6" si="0">(D4*D5)^2</f>
-        <v>16</v>
-      </c>
-      <c r="F6" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="I6" s="3">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="J6" s="3">
-        <f t="shared" si="0"/>
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3">
-        <v>2.0036614475297599E-4</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="F9" s="3">
-        <v>1.84916044399639E-4</v>
-      </c>
-      <c r="G9" s="3">
-        <v>8.85820220754192E-4</v>
-      </c>
-      <c r="I9" s="3">
-        <v>7.1359460692025701E-4</v>
-      </c>
-      <c r="J9" s="3">
-        <v>6.5644790106198798E-3</v>
-      </c>
-      <c r="M9" s="5"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3">
-        <v>1.7259991022395901E-4</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="F10" s="3">
-        <v>1.90428883062033E-4</v>
-      </c>
-      <c r="G10" s="3">
-        <v>8.7758800737793301E-4</v>
-      </c>
-      <c r="I10" s="3">
-        <v>7.2282128416532605E-4</v>
-      </c>
-      <c r="J10" s="3">
-        <v>6.7456662713390797E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="11">
-        <v>30</v>
-      </c>
-      <c r="C11" s="3">
-        <v>1.5535142551917401E-4</v>
-      </c>
-      <c r="D11" s="3">
-        <v>5.1688068525894697E-4</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1.9284956098657499E-4</v>
-      </c>
-      <c r="G11" s="3">
-        <v>8.3430274507303602E-4</v>
-      </c>
-      <c r="I11" s="3">
-        <v>7.3874565474518099E-4</v>
-      </c>
-      <c r="J11" s="3">
-        <v>6.9632965074918497E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="10">
-        <v>40</v>
-      </c>
-      <c r="C12" s="3">
-        <v>1.5718899552127899E-4</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="F12" s="3">
-        <v>1.85722165500422E-4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>9.0225555567159102E-4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>7.3575337309832504E-4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>7.2895078866260796E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
-        <v>50</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1.3452106815218799E-4</v>
-      </c>
-      <c r="D13" s="3">
-        <v>5.0207518622306197E-4</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1.88446500552483E-4</v>
-      </c>
-      <c r="G13" s="3">
-        <v>9.0476578976827799E-4</v>
-      </c>
-      <c r="I13" s="3">
-        <v>7.7420621709952504E-4</v>
-      </c>
-      <c r="J13" s="3">
-        <v>7.5588931123844799E-3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>80</v>
-      </c>
-      <c r="C14" s="3">
-        <v>1.21886151473877E-4</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="F14" s="3">
-        <v>1.9642756071637E-4</v>
-      </c>
-      <c r="G14" s="3">
-        <v>9.4639163527661103E-4</v>
-      </c>
-      <c r="I14" s="3">
-        <v>8.3055672000828301E-4</v>
-      </c>
-      <c r="J14" s="3">
-        <v>8.5831162875826903E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="10">
-        <v>100</v>
-      </c>
-      <c r="C15" s="3">
-        <v>1.11094535713608E-4</v>
-      </c>
-      <c r="D15" s="3">
-        <v>4.22752382804717E-4</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1.96316315524402E-4</v>
-      </c>
-      <c r="G15" s="3">
-        <v>9.3644789188070197E-4</v>
-      </c>
-      <c r="I15" s="3">
-        <v>8.6731448658294104E-4</v>
-      </c>
-      <c r="J15" s="3">
-        <v>9.6453580136129802E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="10">
-        <v>150</v>
-      </c>
-      <c r="C16" s="3">
-        <v>1.0825849110478E-4</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3.87558920528481E-4</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2.07794398905504E-4</v>
-      </c>
-      <c r="G16" s="3">
-        <v>1.1109410112274799E-3</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1.08030854306464E-3</v>
-      </c>
-      <c r="J16" s="3">
-        <v>1.1939220768893199E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B17" s="10">
-        <v>200</v>
-      </c>
-      <c r="C17" s="9">
-        <v>8.9120388536307905E-5</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3.5962140735352501E-4</v>
-      </c>
-      <c r="F17" s="3">
-        <v>2.0044748236900799E-4</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1.11655251809299E-3</v>
-      </c>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3">
-        <v>1.54345627637035E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="10">
-        <v>250</v>
-      </c>
-      <c r="C18" s="9">
-        <v>9.2281648691583E-5</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3.5385553357380301E-4</v>
-      </c>
-      <c r="F18" s="3">
-        <v>1.9306506307164201E-4</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1.2069687691740299E-3</v>
-      </c>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3">
-        <v>1.8739155966606399E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="10">
-        <v>300</v>
-      </c>
-      <c r="C19" s="9">
-        <v>8.5542056306559203E-5</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3.4613499364561002E-4</v>
-      </c>
-      <c r="F19" s="3">
-        <v>2.0044748236900799E-4</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1.2325424397742501E-3</v>
-      </c>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3">
-        <v>2.2561235104750801E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="10">
-        <v>350</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3">
-        <v>3.5049175970383503E-4</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="10">
-        <v>400</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3">
-        <v>3.3093149088347001E-4</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="10">
-        <v>450</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
-        <v>3.2081719733881401E-4</v>
-      </c>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="10">
-        <v>500</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
-        <v>3.13970744165093E-4</v>
-      </c>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="12">
-        <v>550</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17">
-        <v>3.2666527358556801E-4</v>
-      </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="17"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="18">
-        <f>MIN(C9:C24)</f>
-        <v>8.5542056306559203E-5</v>
-      </c>
-      <c r="D25" s="18">
-        <f t="shared" ref="D25:J25" si="1">MIN(D9:D24)</f>
-        <v>3.13970744165093E-4</v>
-      </c>
-      <c r="F25" s="18">
-        <f t="shared" si="1"/>
-        <v>1.84916044399639E-4</v>
-      </c>
-      <c r="G25" s="18">
-        <f>MIN(G9:G24)</f>
-        <v>8.3430274507303602E-4</v>
-      </c>
-      <c r="I25" s="18">
-        <f t="shared" si="1"/>
-        <v>7.1359460692025701E-4</v>
-      </c>
-      <c r="J25" s="18">
-        <f t="shared" si="1"/>
-        <v>6.5644790106198798E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B26" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" s="20">
-        <f>INDEX($B9:$B24, MATCH(MIN(C9:C24), C9:C24, 0))</f>
-        <v>300</v>
-      </c>
-      <c r="D26" s="20">
-        <f>INDEX($B9:$B24, MATCH(MIN(D9:D24), D9:D24, 0))</f>
-        <v>500</v>
-      </c>
-      <c r="F26" s="20">
-        <f>INDEX($B9:$B24, MATCH(MIN(F9:F24), F9:F24, 0))</f>
-        <v>10</v>
-      </c>
-      <c r="G26" s="20">
-        <f>INDEX($B9:$B24, MATCH(MIN(G9:G24), G9:G24, 0))</f>
-        <v>30</v>
-      </c>
-      <c r="I26" s="20">
-        <f>INDEX($B9:$B24, MATCH(MIN(I9:I24), I9:I24, 0))</f>
-        <v>10</v>
-      </c>
-      <c r="J26" s="20">
-        <f>INDEX($B9:$B24, MATCH(MIN(J9:J24), J9:J24, 0))</f>
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Y19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V19" sqref="V19"/>
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2995,7 +1796,7 @@
         <v>168</v>
       </c>
       <c r="R2" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="S2" s="2">
         <v>164</v>
@@ -3013,7 +1814,1419 @@
         <v>163</v>
       </c>
       <c r="Y2" s="2">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>5</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>5</v>
+      </c>
+      <c r="H3" s="2">
+        <v>4</v>
+      </c>
+      <c r="I3" s="2">
+        <v>4</v>
+      </c>
+      <c r="J3" s="2">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2">
+        <v>3</v>
+      </c>
+      <c r="N3" s="2">
+        <v>3</v>
+      </c>
+      <c r="O3" s="2">
+        <v>3</v>
+      </c>
+      <c r="P3" s="2">
+        <v>3</v>
+      </c>
+      <c r="R3" s="2">
+        <v>2</v>
+      </c>
+      <c r="S3" s="2">
+        <v>2</v>
+      </c>
+      <c r="T3" s="2">
+        <v>2</v>
+      </c>
+      <c r="V3" s="2">
+        <v>1</v>
+      </c>
+      <c r="W3" s="2">
+        <v>1</v>
+      </c>
+      <c r="X3" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2</v>
+      </c>
+      <c r="O4" s="2">
+        <v>3</v>
+      </c>
+      <c r="P4" s="2">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2">
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2">
+        <v>3</v>
+      </c>
+      <c r="V4" s="2">
+        <v>3</v>
+      </c>
+      <c r="W4" s="2">
+        <v>4</v>
+      </c>
+      <c r="X4" s="2">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <f>C4+1</f>
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <f>D4+1</f>
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <f>E4+1</f>
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <f>F4+1</f>
+        <v>5</v>
+      </c>
+      <c r="H6" s="1">
+        <f>H4+1</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="1">
+        <f>I4+1</f>
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <f>J4+1</f>
+        <v>4</v>
+      </c>
+      <c r="K6" s="1">
+        <f>K4+1</f>
+        <v>5</v>
+      </c>
+      <c r="M6" s="1">
+        <f>M4+1</f>
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <f>N4+1</f>
+        <v>3</v>
+      </c>
+      <c r="O6" s="1">
+        <f>O4+1</f>
+        <v>4</v>
+      </c>
+      <c r="P6" s="1">
+        <f>P4+1</f>
+        <v>5</v>
+      </c>
+      <c r="R6" s="1">
+        <f>R4+1</f>
+        <v>2</v>
+      </c>
+      <c r="S6" s="1">
+        <f>S4+1</f>
+        <v>3</v>
+      </c>
+      <c r="T6" s="1">
+        <f>T4+1</f>
+        <v>4</v>
+      </c>
+      <c r="V6" s="1">
+        <f>V4+1</f>
+        <v>4</v>
+      </c>
+      <c r="W6" s="1">
+        <f>W4+1</f>
+        <v>5</v>
+      </c>
+      <c r="X6" s="1">
+        <f>X4+1</f>
+        <v>6</v>
+      </c>
+      <c r="Y6" s="1">
+        <f>Y4+1</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <f>C2/C3</f>
+        <v>33</v>
+      </c>
+      <c r="D7" s="1">
+        <f>D2/D3</f>
+        <v>31</v>
+      </c>
+      <c r="E7" s="1">
+        <f>E2/E3</f>
+        <v>33</v>
+      </c>
+      <c r="F7" s="1">
+        <f>F2/F3</f>
+        <v>31</v>
+      </c>
+      <c r="H7" s="1">
+        <f>H2/H3</f>
+        <v>39</v>
+      </c>
+      <c r="I7" s="1">
+        <f>I2/I3</f>
+        <v>40</v>
+      </c>
+      <c r="J7" s="1">
+        <f>J2/J3</f>
+        <v>41</v>
+      </c>
+      <c r="K7" s="1">
+        <f>K2/K3</f>
+        <v>41</v>
+      </c>
+      <c r="M7" s="1">
+        <f>M2/M3</f>
+        <v>55</v>
+      </c>
+      <c r="N7" s="1">
+        <f>N2/N3</f>
+        <v>55</v>
+      </c>
+      <c r="O7" s="1">
+        <f>O2/O3</f>
+        <v>53</v>
+      </c>
+      <c r="P7" s="1">
+        <f>P2/P3</f>
+        <v>56</v>
+      </c>
+      <c r="R7" s="1">
+        <f>R2/R3</f>
+        <v>81</v>
+      </c>
+      <c r="S7" s="1">
+        <f>S2/S3</f>
+        <v>82</v>
+      </c>
+      <c r="T7" s="1">
+        <f>T2/T3</f>
+        <v>81</v>
+      </c>
+      <c r="V7" s="1">
+        <f>V2/V3</f>
+        <v>161</v>
+      </c>
+      <c r="W7" s="1">
+        <f>W2/W3</f>
+        <v>161</v>
+      </c>
+      <c r="X7" s="1">
+        <f>X2/X3</f>
         <v>163</v>
+      </c>
+      <c r="Y7" s="1">
+        <f>Y2/Y3</f>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1">
+        <f>(C7-1)/C6</f>
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <f>(D7-1)/D6</f>
+        <v>10</v>
+      </c>
+      <c r="E8" s="1">
+        <f>(E7-1)/E6</f>
+        <v>8</v>
+      </c>
+      <c r="F8" s="1">
+        <f>(F7-1)/F6</f>
+        <v>6</v>
+      </c>
+      <c r="H8" s="1">
+        <f>(H7-1)/H6</f>
+        <v>19</v>
+      </c>
+      <c r="I8" s="1">
+        <f>(I7-1)/I6</f>
+        <v>13</v>
+      </c>
+      <c r="J8" s="1">
+        <f>(J7-1)/J6</f>
+        <v>10</v>
+      </c>
+      <c r="K8" s="1">
+        <f>(K7-1)/K6</f>
+        <v>8</v>
+      </c>
+      <c r="M8" s="1">
+        <f>(M7-1)/M6</f>
+        <v>27</v>
+      </c>
+      <c r="N8" s="1">
+        <f>(N7-1)/N6</f>
+        <v>18</v>
+      </c>
+      <c r="O8" s="1">
+        <f>(O7-1)/O6</f>
+        <v>13</v>
+      </c>
+      <c r="P8" s="1">
+        <f>(P7-1)/P6</f>
+        <v>11</v>
+      </c>
+      <c r="R8" s="1">
+        <f>(R7-1)/R6</f>
+        <v>40</v>
+      </c>
+      <c r="S8" s="1">
+        <f>(S7-1)/S6</f>
+        <v>27</v>
+      </c>
+      <c r="T8" s="1">
+        <f>(T7-1)/T6</f>
+        <v>20</v>
+      </c>
+      <c r="V8" s="1">
+        <f>(V7-1)/V6</f>
+        <v>40</v>
+      </c>
+      <c r="W8" s="1">
+        <f>(W7-1)/W6</f>
+        <v>32</v>
+      </c>
+      <c r="X8" s="1">
+        <f>(X7-1)/X6</f>
+        <v>27</v>
+      </c>
+      <c r="Y8" s="1">
+        <f>(Y7-1)/Y6</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="1">
+        <f>(C3*C4*C8)^2</f>
+        <v>6400</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" ref="D10:Y10" si="0">(D3*D4*D8)^2</f>
+        <v>10000</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="0"/>
+        <v>5776</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="0"/>
+        <v>10816</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="M10" s="1">
+        <f t="shared" si="0"/>
+        <v>6561</v>
+      </c>
+      <c r="N10" s="1">
+        <f t="shared" si="0"/>
+        <v>11664</v>
+      </c>
+      <c r="O10" s="1">
+        <f t="shared" si="0"/>
+        <v>13689</v>
+      </c>
+      <c r="P10" s="1">
+        <f t="shared" si="0"/>
+        <v>17424</v>
+      </c>
+      <c r="R10" s="1">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="S10" s="1">
+        <f t="shared" si="0"/>
+        <v>11664</v>
+      </c>
+      <c r="T10" s="1">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+      <c r="V10" s="1">
+        <f t="shared" si="0"/>
+        <v>14400</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="0"/>
+        <v>16384</v>
+      </c>
+      <c r="X10" s="1">
+        <f t="shared" si="0"/>
+        <v>18225</v>
+      </c>
+      <c r="Y10" s="1">
+        <f t="shared" si="0"/>
+        <v>20736</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
+        <f>C2^2</f>
+        <v>27225</v>
+      </c>
+      <c r="D11" s="1">
+        <f>D2^2</f>
+        <v>24025</v>
+      </c>
+      <c r="E11" s="1">
+        <f>E2^2</f>
+        <v>27225</v>
+      </c>
+      <c r="F11" s="1">
+        <f>F2^2</f>
+        <v>24025</v>
+      </c>
+      <c r="H11" s="1">
+        <f>H2^2</f>
+        <v>24336</v>
+      </c>
+      <c r="I11" s="1">
+        <f>I2^2</f>
+        <v>25600</v>
+      </c>
+      <c r="J11" s="1">
+        <f>J2^2</f>
+        <v>26896</v>
+      </c>
+      <c r="K11" s="1">
+        <f>K2^2</f>
+        <v>26896</v>
+      </c>
+      <c r="M11" s="1">
+        <f>M2^2</f>
+        <v>27225</v>
+      </c>
+      <c r="N11" s="1">
+        <f>N2^2</f>
+        <v>27225</v>
+      </c>
+      <c r="O11" s="1">
+        <f>O2^2</f>
+        <v>25281</v>
+      </c>
+      <c r="P11" s="1">
+        <f>P2^2</f>
+        <v>28224</v>
+      </c>
+      <c r="R11" s="1">
+        <f>R2^2</f>
+        <v>26244</v>
+      </c>
+      <c r="S11" s="1">
+        <f>S2^2</f>
+        <v>26896</v>
+      </c>
+      <c r="T11" s="1">
+        <f>T2^2</f>
+        <v>26244</v>
+      </c>
+      <c r="V11" s="1">
+        <f>V2^2</f>
+        <v>25921</v>
+      </c>
+      <c r="W11" s="1">
+        <f>W2^2</f>
+        <v>25921</v>
+      </c>
+      <c r="X11" s="1">
+        <f>X2^2</f>
+        <v>26569</v>
+      </c>
+      <c r="Y11" s="1">
+        <f>Y2^2</f>
+        <v>28561</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="4">
+        <f>C10/C11</f>
+        <v>0.23507805325987144</v>
+      </c>
+      <c r="D12" s="4">
+        <f>D10/D11</f>
+        <v>0.41623309053069718</v>
+      </c>
+      <c r="E12" s="4">
+        <f>E10/E11</f>
+        <v>0.52892561983471076</v>
+      </c>
+      <c r="F12" s="4">
+        <f>F10/F11</f>
+        <v>0.59937565036420393</v>
+      </c>
+      <c r="H12" s="4">
+        <f>H10/H11</f>
+        <v>0.23734385272846811</v>
+      </c>
+      <c r="I12" s="4">
+        <f>I10/I11</f>
+        <v>0.42249999999999999</v>
+      </c>
+      <c r="J12" s="4">
+        <f>J10/J11</f>
+        <v>0.53539559785841762</v>
+      </c>
+      <c r="K12" s="4">
+        <f>K10/K11</f>
+        <v>0.60916121356335518</v>
+      </c>
+      <c r="M12" s="4">
+        <f>M10/M11</f>
+        <v>0.24099173553719008</v>
+      </c>
+      <c r="N12" s="4">
+        <f>N10/N11</f>
+        <v>0.42842975206611572</v>
+      </c>
+      <c r="O12" s="4">
+        <f>O10/O11</f>
+        <v>0.54147383410466354</v>
+      </c>
+      <c r="P12" s="4">
+        <f>P10/P11</f>
+        <v>0.61734693877551017</v>
+      </c>
+      <c r="R12" s="4">
+        <f>R10/R11</f>
+        <v>0.24386526444139614</v>
+      </c>
+      <c r="S12" s="4">
+        <f>S10/S11</f>
+        <v>0.43367043426531826</v>
+      </c>
+      <c r="T12" s="4">
+        <f>T10/T11</f>
+        <v>0.54869684499314131</v>
+      </c>
+      <c r="V12" s="4">
+        <f>V10/V11</f>
+        <v>0.55553412291192472</v>
+      </c>
+      <c r="W12" s="4">
+        <f>W10/W11</f>
+        <v>0.63207437984645654</v>
+      </c>
+      <c r="X12" s="4">
+        <f>X10/X11</f>
+        <v>0.68594979110994014</v>
+      </c>
+      <c r="Y12" s="4">
+        <f>Y10/Y11</f>
+        <v>0.72602499912468055</v>
+      </c>
+    </row>
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3">
+        <v>3.1610873505004801E-4</v>
+      </c>
+      <c r="D14" s="3">
+        <v>5.0774632556412798E-3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1.81048589532199E-2</v>
+      </c>
+      <c r="F14" s="3">
+        <v>4.5116996379516099E-2</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3.2859012005348503E-4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2.5415593341669498E-3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>8.0034853813541595E-3</v>
+      </c>
+      <c r="K14" s="3">
+        <v>2.07272888103547E-2</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1.5543502418299899E-4</v>
+      </c>
+      <c r="N14" s="3">
+        <v>9.9277578155593195E-4</v>
+      </c>
+      <c r="O14" s="3">
+        <v>3.01855346240136E-3</v>
+      </c>
+      <c r="P14" s="3">
+        <v>8.0090434437869295E-3</v>
+      </c>
+      <c r="R14" s="9">
+        <v>1.29105167892256E-5</v>
+      </c>
+      <c r="S14" s="3">
+        <v>2.9410584653915601E-4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>9.7118445369099205E-4</v>
+      </c>
+      <c r="V14" s="3">
+        <v>2.0603854028094601E-4</v>
+      </c>
+      <c r="W14" s="3">
+        <v>5.1688068525894697E-4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1.01863862167954E-3</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1.6758856749911799E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="R15" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y15" s="21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <f>INDEX(2:2, MATCH(MIN($14:$14), $14:$14, 0))</f>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2">
+        <f>INDEX(3:3, MATCH(MIN($14:$14), $14:$14, 0))</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="2">
+        <f>INDEX(4:4, MATCH(MIN($14:$14), $14:$14, 0))</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="2">
+        <f>INDEX(12:12, MATCH(MIN($14:$14), $14:$14, 0))</f>
+        <v>0.24386526444139614</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="2">
+        <f>INDEX(14:14, MATCH(MIN($14:$14), $14:$14, 0))</f>
+        <v>1.29105167892256E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B30" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B20:C20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.140625" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.140625" customWidth="1"/>
+    <col min="9" max="9" width="1.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>161</v>
+      </c>
+      <c r="D3" s="2">
+        <v>161</v>
+      </c>
+      <c r="E3" s="2">
+        <v>169</v>
+      </c>
+      <c r="G3" s="2">
+        <v>164</v>
+      </c>
+      <c r="H3" s="2">
+        <v>162</v>
+      </c>
+      <c r="J3" s="2">
+        <v>165</v>
+      </c>
+      <c r="K3" s="2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>3</v>
+      </c>
+      <c r="K4" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3">
+        <f>(C4*C5)^2</f>
+        <v>9</v>
+      </c>
+      <c r="D6" s="3">
+        <f>(D4*D5)^2</f>
+        <v>16</v>
+      </c>
+      <c r="E6" s="3">
+        <f>(E4*E5)^2</f>
+        <v>36</v>
+      </c>
+      <c r="G6" s="3">
+        <f>(G4*G5)^2</f>
+        <v>16</v>
+      </c>
+      <c r="H6" s="3">
+        <f>(H4*H5)^2</f>
+        <v>36</v>
+      </c>
+      <c r="J6" s="3">
+        <f>(J4*J5)^2</f>
+        <v>36</v>
+      </c>
+      <c r="K6" s="3">
+        <f>(K4*K5)^2</f>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="5"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2.0036614475297599E-4</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3">
+        <v>2.0282994296364201E-3</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1.84916044399639E-4</v>
+      </c>
+      <c r="H9" s="3">
+        <v>8.85820220754192E-4</v>
+      </c>
+      <c r="J9" s="3">
+        <v>7.1359460692025701E-4</v>
+      </c>
+      <c r="K9" s="3">
+        <v>6.5644790106198798E-3</v>
+      </c>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B10" s="2">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1.7259991022395901E-4</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>2.0792077697723101E-3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1.90428883062033E-4</v>
+      </c>
+      <c r="H10" s="3">
+        <v>8.7758800737793301E-4</v>
+      </c>
+      <c r="J10" s="3">
+        <v>7.2282128416532605E-4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>6.7456662713390797E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1.5535142551917401E-4</v>
+      </c>
+      <c r="D11" s="3">
+        <v>5.1688068525894697E-4</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1.87455104603909E-3</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1.9284956098657499E-4</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8.3430274507303602E-4</v>
+      </c>
+      <c r="J11" s="3">
+        <v>7.3874565474518099E-4</v>
+      </c>
+      <c r="K11" s="3">
+        <v>6.9632965074918497E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="10">
+        <v>40</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1.5718899552127899E-4</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>1.85572332518505E-3</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1.85722165500422E-4</v>
+      </c>
+      <c r="H12" s="3">
+        <v>9.0225555567159102E-4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>7.3575337309832504E-4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>7.2895078866260796E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>50</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.3452106815218799E-4</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5.0207518622306197E-4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1.84821707086378E-3</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1.88446500552483E-4</v>
+      </c>
+      <c r="H13" s="3">
+        <v>9.0476578976827799E-4</v>
+      </c>
+      <c r="J13" s="3">
+        <v>7.7420621709952504E-4</v>
+      </c>
+      <c r="K13" s="3">
+        <v>7.5588931123844799E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="2">
+        <v>80</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.21886151473877E-4</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>1.82011601592898E-3</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1.9642756071637E-4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>9.4639163527661103E-4</v>
+      </c>
+      <c r="J14" s="3">
+        <v>8.3055672000828301E-4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>8.5831162875826903E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="10">
+        <v>100</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.11094535713608E-4</v>
+      </c>
+      <c r="D15" s="3">
+        <v>4.22752382804717E-4</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1.9215186481686001E-3</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1.96316315524402E-4</v>
+      </c>
+      <c r="H15" s="3">
+        <v>9.3644789188070197E-4</v>
+      </c>
+      <c r="J15" s="3">
+        <v>8.6731448658294104E-4</v>
+      </c>
+      <c r="K15" s="3">
+        <v>9.6453580136129802E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="10">
+        <v>150</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.0825849110478E-4</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3.87558920528481E-4</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1.75808928269586E-3</v>
+      </c>
+      <c r="G16" s="3">
+        <v>2.07794398905504E-4</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1.1109410112274799E-3</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1.08030854306464E-3</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1.1939220768893199E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>200</v>
+      </c>
+      <c r="C17" s="9">
+        <v>8.9120388536307905E-5</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3.5962140735352501E-4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1.6758856749966499E-3</v>
+      </c>
+      <c r="G17" s="3">
+        <v>2.0044748236900799E-4</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1.11655251809299E-3</v>
+      </c>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3">
+        <v>1.54345627637035E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="10">
+        <v>250</v>
+      </c>
+      <c r="C18" s="9">
+        <v>9.2281648691583E-5</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3.5385553357380301E-4</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1.67422157166001E-3</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1.9306506307164201E-4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1.2069687691740299E-3</v>
+      </c>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3">
+        <v>1.8739155966606399E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="10">
+        <v>300</v>
+      </c>
+      <c r="C19" s="9">
+        <v>8.5542056306559203E-5</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3.4613499364561002E-4</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1.6246968681396399E-3</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2.0044748236900799E-4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1.2325424397742501E-3</v>
+      </c>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3">
+        <v>2.2561235104750801E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="10">
+        <v>350</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3">
+        <v>3.5049175970383503E-4</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="10">
+        <v>400</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3">
+        <v>3.3093149088347001E-4</v>
+      </c>
+      <c r="E21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" s="10">
+        <v>450</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3">
+        <v>3.2081719733881401E-4</v>
+      </c>
+      <c r="E22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" s="10">
+        <v>500</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3">
+        <v>3.13970744165093E-4</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" s="12">
+        <v>550</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="22">
+        <v>3.2666527358556801E-4</v>
+      </c>
+      <c r="E24" s="23"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="14"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="15">
+        <f>MIN(C9:C24)</f>
+        <v>8.5542056306559203E-5</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" ref="D25:K25" si="0">MIN(D9:D24)</f>
+        <v>3.13970744165093E-4</v>
+      </c>
+      <c r="E25" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6246968681396399E-3</v>
+      </c>
+      <c r="G25" s="15">
+        <f t="shared" si="0"/>
+        <v>1.84916044399639E-4</v>
+      </c>
+      <c r="H25" s="15">
+        <f>MIN(H9:H24)</f>
+        <v>8.3430274507303602E-4</v>
+      </c>
+      <c r="J25" s="15">
+        <f t="shared" si="0"/>
+        <v>7.1359460692025701E-4</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="0"/>
+        <v>6.5644790106198798E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="17">
+        <f>INDEX($B9:$B24, MATCH(MIN(C9:C24), C9:C24, 0))</f>
+        <v>300</v>
+      </c>
+      <c r="D26" s="17">
+        <f>INDEX($B9:$B24, MATCH(MIN(D9:D24), D9:D24, 0))</f>
+        <v>500</v>
+      </c>
+      <c r="E26" s="17">
+        <f>INDEX($B9:$B24, MATCH(MIN(E9:E24), E9:E24, 0))</f>
+        <v>300</v>
+      </c>
+      <c r="G26" s="17">
+        <f>INDEX($B9:$B24, MATCH(MIN(G9:G24), G9:G24, 0))</f>
+        <v>10</v>
+      </c>
+      <c r="H26" s="17">
+        <f>INDEX($B9:$B24, MATCH(MIN(H9:H24), H9:H24, 0))</f>
+        <v>30</v>
+      </c>
+      <c r="J26" s="17">
+        <f>INDEX($B9:$B24, MATCH(MIN(J9:J24), J9:J24, 0))</f>
+        <v>10</v>
+      </c>
+      <c r="K26" s="17">
+        <f>INDEX($B9:$B24, MATCH(MIN(K9:K24), K9:K24, 0))</f>
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Y32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="7" max="7" width="1.140625" customWidth="1"/>
+    <col min="12" max="12" width="1.140625" customWidth="1"/>
+    <col min="17" max="17" width="1.140625" customWidth="1"/>
+    <col min="21" max="21" width="1.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>165</v>
+      </c>
+      <c r="D2" s="2">
+        <v>155</v>
+      </c>
+      <c r="E2" s="2">
+        <v>165</v>
+      </c>
+      <c r="F2" s="2">
+        <v>155</v>
+      </c>
+      <c r="H2" s="2">
+        <v>156</v>
+      </c>
+      <c r="I2" s="2">
+        <v>160</v>
+      </c>
+      <c r="J2" s="2">
+        <v>164</v>
+      </c>
+      <c r="K2" s="2">
+        <v>164</v>
+      </c>
+      <c r="M2" s="2">
+        <v>165</v>
+      </c>
+      <c r="N2" s="2">
+        <v>165</v>
+      </c>
+      <c r="O2" s="2">
+        <v>159</v>
+      </c>
+      <c r="P2" s="2">
+        <v>168</v>
+      </c>
+      <c r="R2" s="2">
+        <v>164</v>
+      </c>
+      <c r="S2" s="2">
+        <v>164</v>
+      </c>
+      <c r="T2" s="2">
+        <v>162</v>
+      </c>
+      <c r="V2" s="2">
+        <v>161</v>
+      </c>
+      <c r="W2" s="2">
+        <v>161</v>
+      </c>
+      <c r="X2" s="2">
+        <v>163</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:25" x14ac:dyDescent="0.25">
@@ -3148,27 +3361,33 @@
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
+      <c r="L6" s="3"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
+      <c r="Q6" s="3"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
+      <c r="T6" s="2">
+        <v>30</v>
+      </c>
+      <c r="U6" s="3"/>
+      <c r="V6" s="2">
+        <v>200</v>
+      </c>
       <c r="W6" s="2">
         <v>200</v>
       </c>
       <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
+      <c r="Y6" s="2">
+        <v>300</v>
+      </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
@@ -3178,640 +3397,728 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="L7" s="3"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
+      <c r="Q7" s="3"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
+      <c r="U7" s="3"/>
+      <c r="V7" s="2">
+        <v>0.95</v>
+      </c>
       <c r="W7" s="2">
         <v>0.8</v>
       </c>
       <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
+      <c r="Y7" s="2">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="13" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="L8" s="3"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="Q8" s="3"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-      <c r="U8" s="2"/>
+      <c r="T8" s="24">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="U8" s="3"/>
       <c r="V8" s="2"/>
-      <c r="W8" s="2">
-        <v>7</v>
+      <c r="W8" s="24">
+        <v>0.01</v>
       </c>
       <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
+      <c r="Y8" s="24">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="L9" s="3"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
+      <c r="Q9" s="3"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="2"/>
+      <c r="U9" s="3"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2">
+        <v>7</v>
+      </c>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2">
         <v>0.2</v>
       </c>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-    </row>
-    <row r="11" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B12" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C12" s="1">
         <f>C4+1</f>
         <v>2</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D12" s="1">
         <f>D4+1</f>
         <v>3</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E12" s="1">
         <f>E4+1</f>
         <v>4</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F12" s="1">
         <f>F4+1</f>
         <v>5</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H12" s="1">
         <f>H4+1</f>
         <v>2</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I12" s="1">
         <f>I4+1</f>
         <v>3</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J12" s="1">
         <f>J4+1</f>
         <v>4</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K12" s="1">
         <f>K4+1</f>
         <v>5</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M12" s="1">
         <f>M4+1</f>
         <v>2</v>
       </c>
-      <c r="N11" s="1">
+      <c r="N12" s="1">
         <f>N4+1</f>
         <v>3</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O12" s="1">
         <f>O4+1</f>
         <v>4</v>
       </c>
-      <c r="P11" s="1">
+      <c r="P12" s="1">
         <f>P4+1</f>
         <v>5</v>
       </c>
-      <c r="R11" s="1">
+      <c r="R12" s="1">
         <f>R4+1</f>
         <v>2</v>
       </c>
-      <c r="S11" s="1">
+      <c r="S12" s="1">
         <f>S4+1</f>
         <v>3</v>
       </c>
-      <c r="T11" s="1">
+      <c r="T12" s="1">
         <f>T4+1</f>
         <v>4</v>
       </c>
-      <c r="V11" s="1">
+      <c r="V12" s="1">
         <f>V4+1</f>
         <v>4</v>
       </c>
-      <c r="W11" s="1">
+      <c r="W12" s="1">
         <f>W4+1</f>
         <v>5</v>
       </c>
-      <c r="X11" s="1">
+      <c r="X12" s="1">
         <f>X4+1</f>
         <v>6</v>
       </c>
-      <c r="Y11" s="1">
+      <c r="Y12" s="1">
         <f>Y4+1</f>
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C13" s="1">
         <f>C2/C3</f>
         <v>33</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D13" s="1">
         <f>D2/D3</f>
         <v>31</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E13" s="1">
         <f>E2/E3</f>
         <v>33</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F13" s="1">
         <f>F2/F3</f>
         <v>31</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H13" s="1">
         <f>H2/H3</f>
         <v>39</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I13" s="1">
         <f>I2/I3</f>
         <v>40</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J13" s="1">
         <f>J2/J3</f>
         <v>41</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K13" s="1">
         <f>K2/K3</f>
         <v>41</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M13" s="1">
         <f>M2/M3</f>
         <v>55</v>
       </c>
-      <c r="N12" s="1">
+      <c r="N13" s="1">
         <f>N2/N3</f>
         <v>55</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O13" s="1">
         <f>O2/O3</f>
         <v>53</v>
       </c>
-      <c r="P12" s="1">
+      <c r="P13" s="1">
         <f>P2/P3</f>
         <v>56</v>
       </c>
-      <c r="R12" s="1">
+      <c r="R13" s="1">
         <f>R2/R3</f>
         <v>82</v>
       </c>
-      <c r="S12" s="1">
+      <c r="S13" s="1">
         <f>S2/S3</f>
         <v>82</v>
       </c>
-      <c r="T12" s="1">
+      <c r="T13" s="1">
         <f>T2/T3</f>
         <v>81</v>
       </c>
-      <c r="V12" s="1">
+      <c r="V13" s="1">
         <f>V2/V3</f>
         <v>161</v>
       </c>
-      <c r="W12" s="1">
+      <c r="W13" s="1">
         <f>W2/W3</f>
         <v>161</v>
       </c>
-      <c r="X12" s="1">
+      <c r="X13" s="1">
         <f>X2/X3</f>
         <v>163</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="Y13" s="1">
         <f>Y2/Y3</f>
-        <v>163</v>
-      </c>
-    </row>
-    <row r="13" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="1">
-        <f>(C12-1)/C11</f>
+      <c r="C14" s="1">
+        <f>(C13-1)/C12</f>
         <v>16</v>
       </c>
-      <c r="D13" s="1">
-        <f>(D12-1)/D11</f>
+      <c r="D14" s="1">
+        <f>(D13-1)/D12</f>
         <v>10</v>
       </c>
-      <c r="E13" s="1">
-        <f>(E12-1)/E11</f>
+      <c r="E14" s="1">
+        <f>(E13-1)/E12</f>
         <v>8</v>
       </c>
-      <c r="F13" s="1">
-        <f>(F12-1)/F11</f>
+      <c r="F14" s="1">
+        <f>(F13-1)/F12</f>
         <v>6</v>
       </c>
-      <c r="H13" s="1">
-        <f>(H12-1)/H11</f>
+      <c r="H14" s="1">
+        <f>(H13-1)/H12</f>
         <v>19</v>
       </c>
-      <c r="I13" s="1">
-        <f>(I12-1)/I11</f>
+      <c r="I14" s="1">
+        <f>(I13-1)/I12</f>
         <v>13</v>
       </c>
-      <c r="J13" s="1">
-        <f>(J12-1)/J11</f>
+      <c r="J14" s="1">
+        <f>(J13-1)/J12</f>
         <v>10</v>
       </c>
-      <c r="K13" s="1">
-        <f>(K12-1)/K11</f>
+      <c r="K14" s="1">
+        <f>(K13-1)/K12</f>
         <v>8</v>
       </c>
-      <c r="M13" s="1">
-        <f>(M12-1)/M11</f>
+      <c r="M14" s="1">
+        <f>(M13-1)/M12</f>
         <v>27</v>
       </c>
-      <c r="N13" s="1">
-        <f>(N12-1)/N11</f>
+      <c r="N14" s="1">
+        <f>(N13-1)/N12</f>
         <v>18</v>
       </c>
-      <c r="O13" s="1">
-        <f>(O12-1)/O11</f>
+      <c r="O14" s="1">
+        <f>(O13-1)/O12</f>
         <v>13</v>
       </c>
-      <c r="P13" s="1">
-        <f>(P12-1)/P11</f>
+      <c r="P14" s="1">
+        <f>(P13-1)/P12</f>
         <v>11</v>
       </c>
-      <c r="R13" s="1">
-        <f>(R12-1)/R11</f>
+      <c r="R14" s="1">
+        <f>(R13-1)/R12</f>
         <v>40.5</v>
       </c>
-      <c r="S13" s="1">
-        <f>(S12-1)/S11</f>
+      <c r="S14" s="1">
+        <f>(S13-1)/S12</f>
         <v>27</v>
       </c>
-      <c r="T13" s="1">
-        <f>(T12-1)/T11</f>
+      <c r="T14" s="1">
+        <f>(T13-1)/T12</f>
         <v>20</v>
       </c>
-      <c r="V13" s="1">
-        <f>(V12-1)/V11</f>
+      <c r="V14" s="1">
+        <f>(V13-1)/V12</f>
         <v>40</v>
       </c>
-      <c r="W13" s="1">
-        <f>(W12-1)/W11</f>
+      <c r="W14" s="1">
+        <f>(W13-1)/W12</f>
         <v>32</v>
       </c>
-      <c r="X13" s="1">
-        <f>(X12-1)/X11</f>
+      <c r="X14" s="1">
+        <f>(X13-1)/X12</f>
         <v>27</v>
       </c>
-      <c r="Y13" s="1">
-        <f>(Y12-1)/Y11</f>
-        <v>23.142857142857142</v>
-      </c>
-    </row>
-    <row r="15" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="1">
-        <f>C13^2*(C3*(C11-1))^2</f>
-        <v>6400</v>
-      </c>
-      <c r="D15" s="1">
-        <f>D13^2*(D3*(D11-1))^2</f>
-        <v>10000</v>
-      </c>
-      <c r="E15" s="1">
-        <f>E13^2*(E3*(E11-1))^2</f>
-        <v>14400</v>
-      </c>
-      <c r="F15" s="1">
-        <f>F13^2*(F3*(F11-1))^2</f>
-        <v>14400</v>
-      </c>
-      <c r="H15" s="1">
-        <f>H13^2*(H3*(H11-1))^2</f>
-        <v>5776</v>
-      </c>
-      <c r="I15" s="1">
-        <f>I13^2*(I3*(I11-1))^2</f>
-        <v>10816</v>
-      </c>
-      <c r="J15" s="1">
-        <f>J13^2*(J3*(J11-1))^2</f>
-        <v>14400</v>
-      </c>
-      <c r="K15" s="1">
-        <f>K13^2*(K3*(K11-1))^2</f>
-        <v>16384</v>
-      </c>
-      <c r="M15" s="1">
-        <f>M13^2*(M3*(M11-1))^2</f>
-        <v>6561</v>
-      </c>
-      <c r="N15" s="1">
-        <f>N13^2*(N3*(N11-1))^2</f>
-        <v>11664</v>
-      </c>
-      <c r="O15" s="1">
-        <f>O13^2*(O3*(O11-1))^2</f>
-        <v>13689</v>
-      </c>
-      <c r="P15" s="1">
-        <f>P13^2*(P3*(P11-1))^2</f>
-        <v>17424</v>
-      </c>
-      <c r="R15" s="1">
-        <f>R13^2*(R3*(R11-1))^2</f>
-        <v>6561</v>
-      </c>
-      <c r="S15" s="1">
-        <f>S13^2*(S3*(S11-1))^2</f>
-        <v>11664</v>
-      </c>
-      <c r="T15" s="1">
-        <f>T13^2*(T3*(T11-1))^2</f>
-        <v>14400</v>
-      </c>
-      <c r="V15" s="1">
-        <f>V13^2*(V3*(V11-1))^2</f>
-        <v>14400</v>
-      </c>
-      <c r="W15" s="1">
-        <f>W13^2*(W3*(W11-1))^2</f>
-        <v>16384</v>
-      </c>
-      <c r="X15" s="1">
-        <f>X13^2*(X3*(X11-1))^2</f>
-        <v>18225</v>
-      </c>
-      <c r="Y15" s="1">
-        <f>Y13^2*(Y3*(Y11-1))^2</f>
-        <v>19281.306122448979</v>
+      <c r="Y14" s="1">
+        <f>(Y13-1)/Y12</f>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="1">
+        <f>C14^2*(C3*(C12-1))^2</f>
+        <v>6400</v>
+      </c>
+      <c r="D16" s="1">
+        <f>D14^2*(D3*(D12-1))^2</f>
+        <v>10000</v>
+      </c>
+      <c r="E16" s="1">
+        <f>E14^2*(E3*(E12-1))^2</f>
+        <v>14400</v>
+      </c>
+      <c r="F16" s="1">
+        <f>F14^2*(F3*(F12-1))^2</f>
+        <v>14400</v>
+      </c>
+      <c r="H16" s="1">
+        <f>H14^2*(H3*(H12-1))^2</f>
+        <v>5776</v>
+      </c>
+      <c r="I16" s="1">
+        <f>I14^2*(I3*(I12-1))^2</f>
+        <v>10816</v>
+      </c>
+      <c r="J16" s="1">
+        <f>J14^2*(J3*(J12-1))^2</f>
+        <v>14400</v>
+      </c>
+      <c r="K16" s="1">
+        <f>K14^2*(K3*(K12-1))^2</f>
+        <v>16384</v>
+      </c>
+      <c r="M16" s="1">
+        <f>M14^2*(M3*(M12-1))^2</f>
+        <v>6561</v>
+      </c>
+      <c r="N16" s="1">
+        <f>N14^2*(N3*(N12-1))^2</f>
+        <v>11664</v>
+      </c>
+      <c r="O16" s="1">
+        <f>O14^2*(O3*(O12-1))^2</f>
+        <v>13689</v>
+      </c>
+      <c r="P16" s="1">
+        <f>P14^2*(P3*(P12-1))^2</f>
+        <v>17424</v>
+      </c>
+      <c r="R16" s="1">
+        <f>R14^2*(R3*(R12-1))^2</f>
+        <v>6561</v>
+      </c>
+      <c r="S16" s="1">
+        <f>S14^2*(S3*(S12-1))^2</f>
+        <v>11664</v>
+      </c>
+      <c r="T16" s="1">
+        <f>T14^2*(T3*(T12-1))^2</f>
+        <v>14400</v>
+      </c>
+      <c r="V16" s="1">
+        <f>V14^2*(V3*(V12-1))^2</f>
+        <v>14400</v>
+      </c>
+      <c r="W16" s="1">
+        <f>W14^2*(W3*(W12-1))^2</f>
+        <v>16384</v>
+      </c>
+      <c r="X16" s="1">
+        <f>X14^2*(X3*(X12-1))^2</f>
+        <v>18225</v>
+      </c>
+      <c r="Y16" s="1">
+        <f>Y14^2*(Y3*(Y12-1))^2</f>
+        <v>20736</v>
+      </c>
+    </row>
+    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C17" s="1">
         <f>C2^2</f>
         <v>27225</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D17" s="1">
         <f>D2^2</f>
         <v>24025</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E17" s="1">
         <f>E2^2</f>
         <v>27225</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F17" s="1">
         <f>F2^2</f>
         <v>24025</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H17" s="1">
         <f>H2^2</f>
         <v>24336</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I17" s="1">
         <f>I2^2</f>
         <v>25600</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J17" s="1">
         <f>J2^2</f>
         <v>26896</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K17" s="1">
         <f>K2^2</f>
         <v>26896</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M17" s="1">
         <f>M2^2</f>
         <v>27225</v>
       </c>
-      <c r="N16" s="1">
+      <c r="N17" s="1">
         <f>N2^2</f>
         <v>27225</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O17" s="1">
         <f>O2^2</f>
         <v>25281</v>
       </c>
-      <c r="P16" s="1">
+      <c r="P17" s="1">
         <f>P2^2</f>
         <v>28224</v>
       </c>
-      <c r="R16" s="1">
+      <c r="R17" s="1">
         <f>R2^2</f>
         <v>26896</v>
       </c>
-      <c r="S16" s="1">
+      <c r="S17" s="1">
         <f>S2^2</f>
         <v>26896</v>
       </c>
-      <c r="T16" s="1">
+      <c r="T17" s="1">
         <f>T2^2</f>
         <v>26244</v>
       </c>
-      <c r="V16" s="1">
+      <c r="V17" s="1">
         <f>V2^2</f>
         <v>25921</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W17" s="1">
         <f>W2^2</f>
         <v>25921</v>
       </c>
-      <c r="X16" s="1">
+      <c r="X17" s="1">
         <f>X2^2</f>
         <v>26569</v>
       </c>
-      <c r="Y16" s="1">
+      <c r="Y17" s="1">
         <f>Y2^2</f>
-        <v>26569</v>
-      </c>
-    </row>
-    <row r="17" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
+        <v>28561</v>
+      </c>
+    </row>
+    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="4">
-        <f>C15/C16</f>
+      <c r="C18" s="4">
+        <f>C16/C17</f>
         <v>0.23507805325987144</v>
       </c>
-      <c r="D17" s="4">
-        <f>D15/D16</f>
+      <c r="D18" s="4">
+        <f>D16/D17</f>
         <v>0.41623309053069718</v>
       </c>
-      <c r="E17" s="4">
-        <f>E15/E16</f>
+      <c r="E18" s="4">
+        <f>E16/E17</f>
         <v>0.52892561983471076</v>
       </c>
-      <c r="F17" s="4">
-        <f>F15/F16</f>
+      <c r="F18" s="4">
+        <f>F16/F17</f>
         <v>0.59937565036420393</v>
       </c>
-      <c r="H17" s="4">
-        <f>H15/H16</f>
+      <c r="H18" s="4">
+        <f>H16/H17</f>
         <v>0.23734385272846811</v>
       </c>
-      <c r="I17" s="4">
-        <f>I15/I16</f>
+      <c r="I18" s="4">
+        <f>I16/I17</f>
         <v>0.42249999999999999</v>
       </c>
-      <c r="J17" s="4">
-        <f>J15/J16</f>
+      <c r="J18" s="4">
+        <f>J16/J17</f>
         <v>0.53539559785841762</v>
       </c>
-      <c r="K17" s="4">
-        <f>K15/K16</f>
+      <c r="K18" s="4">
+        <f>K16/K17</f>
         <v>0.60916121356335518</v>
       </c>
-      <c r="M17" s="4">
-        <f>M15/M16</f>
+      <c r="M18" s="4">
+        <f>M16/M17</f>
         <v>0.24099173553719008</v>
       </c>
-      <c r="N17" s="4">
-        <f>N15/N16</f>
+      <c r="N18" s="4">
+        <f>N16/N17</f>
         <v>0.42842975206611572</v>
       </c>
-      <c r="O17" s="4">
-        <f>O15/O16</f>
+      <c r="O18" s="4">
+        <f>O16/O17</f>
         <v>0.54147383410466354</v>
       </c>
-      <c r="P17" s="4">
-        <f>P15/P16</f>
+      <c r="P18" s="4">
+        <f>P16/P17</f>
         <v>0.61734693877551017</v>
       </c>
-      <c r="R17" s="4">
-        <f>R15/R16</f>
+      <c r="R18" s="4">
+        <f>R16/R17</f>
         <v>0.24393961927424151</v>
       </c>
-      <c r="S17" s="4">
-        <f>S15/S16</f>
+      <c r="S18" s="4">
+        <f>S16/S17</f>
         <v>0.43367043426531826</v>
       </c>
-      <c r="T17" s="4">
-        <f>T15/T16</f>
+      <c r="T18" s="4">
+        <f>T16/T17</f>
         <v>0.54869684499314131</v>
       </c>
-      <c r="V17" s="4">
-        <f>V15/V16</f>
+      <c r="V18" s="4">
+        <f>V16/V17</f>
         <v>0.55553412291192472</v>
       </c>
-      <c r="W17" s="4">
-        <f>W15/W16</f>
+      <c r="W18" s="4">
+        <f>W16/W17</f>
         <v>0.63207437984645654</v>
       </c>
-      <c r="X17" s="4">
-        <f>X15/X16</f>
+      <c r="X18" s="4">
+        <f>X16/X17</f>
         <v>0.68594979110994014</v>
       </c>
-      <c r="Y17" s="4">
-        <f>Y15/Y16</f>
-        <v>0.7257068810436591</v>
-      </c>
-    </row>
-    <row r="18" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
+      <c r="Y18" s="4">
+        <f>Y16/Y17</f>
+        <v>0.72602499912468055</v>
+      </c>
     </row>
     <row r="19" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="6"/>
+    </row>
+    <row r="20" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C20" s="3">
         <v>3.1610873505004801E-4</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D20" s="3">
         <v>5.0774632556412798E-3</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E20" s="3">
         <v>1.81048589532199E-2</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F20" s="3">
         <v>4.5116996379516099E-2</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H20" s="3">
         <v>3.2859012005348503E-4</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I20" s="3">
         <v>2.5415593341669498E-3</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J20" s="3">
         <v>8.0034853813541595E-3</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K20" s="3">
         <v>2.07272888103547E-2</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M20" s="3">
         <v>1.5543502418299899E-4</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N20" s="3">
         <v>9.9277578155593195E-4</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O20" s="3">
         <v>3.01855346240136E-3</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P20" s="3">
         <v>8.0090434437869295E-3</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R20" s="9">
         <v>5.90960248564274E-5</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S20" s="3">
         <v>2.9410584653915601E-4</v>
       </c>
-      <c r="T19" s="3">
-        <v>9.7118445369099205E-4</v>
-      </c>
-      <c r="V19" s="3">
-        <v>2.0603854028094601E-4</v>
-      </c>
-      <c r="W19" s="3">
+      <c r="T20" s="3">
+        <v>8.3380331370560602E-4</v>
+      </c>
+      <c r="V20" s="9">
+        <v>8.9120388536307905E-5</v>
+      </c>
+      <c r="W20" s="3">
         <v>2.5600530402040999E-4</v>
       </c>
-      <c r="X19" s="3">
+      <c r="X20" s="3">
         <v>1.01863862167954E-3</v>
       </c>
-      <c r="Y19" s="3">
-        <v>1.84589779112873E-3</v>
+      <c r="Y20" s="3">
+        <v>1.4742714886595799E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f>(C24+C25)/(C25+C26)</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <f>(C27*C25)^2</f>
+        <v>41616</v>
+      </c>
+    </row>
+    <row r="30" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C30">
+        <f>C24^2</f>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="31" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C31">
+        <f>C30-C29</f>
+        <v>48384</v>
+      </c>
+    </row>
+    <row r="32" spans="2:25" x14ac:dyDescent="0.25">
+      <c r="C32">
+        <f>C31/C30</f>
+        <v>0.53759999999999997</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>